--- a/dataset/gdp_unemp_raw.xlsx
+++ b/dataset/gdp_unemp_raw.xlsx
@@ -75,10 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +571,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2092674528"/>
-        <c:axId val="-2092670176"/>
+        <c:axId val="-1554492416"/>
+        <c:axId val="-1554478272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -811,8 +810,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092674528"/>
-        <c:axId val="-2092670176"/>
+        <c:axId val="-1554492416"/>
+        <c:axId val="-1554478272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -849,113 +848,113 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
-                <c:pt idx="26" formatCode="0.00%">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00%">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00%">
-                  <c:v>6.7400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00%">
-                  <c:v>6.8199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00%">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00%">
-                  <c:v>6.83E-2</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00%">
-                  <c:v>7.0099999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00%">
-                  <c:v>7.1800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.00%">
-                  <c:v>7.2800000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.00%">
-                  <c:v>7.4899999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.00%">
-                  <c:v>7.7100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00%">
-                  <c:v>7.7700000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.00%">
-                  <c:v>7.9600000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00%">
-                  <c:v>8.1000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.00%">
-                  <c:v>8.3599999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.00%">
-                  <c:v>8.5300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00%">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.00%">
-                  <c:v>8.6300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="0.00%">
-                  <c:v>8.5400000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.00%">
-                  <c:v>8.3500000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="0.00%">
-                  <c:v>8.3799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="0.00%">
-                  <c:v>8.3199999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.00%">
-                  <c:v>8.1699999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.00%">
-                  <c:v>8.1000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="0.00%">
-                  <c:v>8.0399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="0.00%">
-                  <c:v>7.9799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.00%">
-                  <c:v>7.9200000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="0.00%">
-                  <c:v>7.8399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="0.00%">
-                  <c:v>7.7299999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="0.00%">
-                  <c:v>7.6499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="0.00%">
-                  <c:v>6.5100000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="0.00%">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="0.00%">
-                  <c:v>7.7100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="0.00%">
-                  <c:v>7.3300000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="0.00%">
-                  <c:v>8.0299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="0.00%">
-                  <c:v>6.5699999999999995E-2</c:v>
+                <c:pt idx="26">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.4899999999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.9799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.7299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.6499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5699999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,11 +971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2091741824"/>
-        <c:axId val="-2091740192"/>
+        <c:axId val="-1554486976"/>
+        <c:axId val="-1554481536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092674528"/>
+        <c:axId val="-1554492416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092670176"/>
+        <c:crossAx val="-1554478272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092670176"/>
+        <c:axId val="-1554478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,12 +1077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092674528"/>
+        <c:crossAx val="-1554492416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091740192"/>
+        <c:axId val="-1554481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,12 +1119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091741824"/>
+        <c:crossAx val="-1554486976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2091741824"/>
+        <c:axId val="-1554486976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1133,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091740192"/>
+        <c:crossAx val="-1554481536"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2060,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2292,8 +2292,8 @@
       <c r="B28">
         <v>347.46203000000003</v>
       </c>
-      <c r="C28" s="2">
-        <v>5.2999999999999999E-2</v>
+      <c r="C28">
+        <v>5.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2303,8 +2303,8 @@
       <c r="B29">
         <v>368.74975940000002</v>
       </c>
-      <c r="C29" s="2">
-        <v>5.8000000000000003E-2</v>
+      <c r="C29">
+        <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2314,8 +2314,8 @@
       <c r="B30">
         <v>303.850438</v>
       </c>
-      <c r="C30" s="2">
-        <v>6.7400000000000002E-2</v>
+      <c r="C30">
+        <v>6.74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,8 +2325,8 @@
       <c r="B31">
         <v>317.55873869999999</v>
       </c>
-      <c r="C31" s="2">
-        <v>6.8199999999999997E-2</v>
+      <c r="C31">
+        <v>6.8199999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2336,8 +2336,8 @@
       <c r="B32">
         <v>301.50079119999998</v>
       </c>
-      <c r="C32" s="2">
-        <v>6.8000000000000005E-2</v>
+      <c r="C32">
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,8 +2347,8 @@
       <c r="B33">
         <v>346.22739309999997</v>
       </c>
-      <c r="C33" s="2">
-        <v>6.83E-2</v>
+      <c r="C33">
+        <v>6.83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2358,8 +2358,8 @@
       <c r="B34">
         <v>373.6282357</v>
       </c>
-      <c r="C34" s="2">
-        <v>7.0099999999999996E-2</v>
+      <c r="C34">
+        <v>7.01</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,8 +2369,8 @@
       <c r="B35">
         <v>399.57731219999999</v>
       </c>
-      <c r="C35" s="2">
-        <v>7.1800000000000003E-2</v>
+      <c r="C35">
+        <v>7.1800000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2380,8 +2380,8 @@
       <c r="B36">
         <v>414.8986797</v>
       </c>
-      <c r="C36" s="2">
-        <v>7.2800000000000004E-2</v>
+      <c r="C36">
+        <v>7.28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2391,8 +2391,8 @@
       <c r="B37">
         <v>412.5093541</v>
       </c>
-      <c r="C37" s="2">
-        <v>7.4899999999999994E-2</v>
+      <c r="C37">
+        <v>7.4899999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2402,8 +2402,8 @@
       <c r="B38">
         <v>440.96145460000002</v>
       </c>
-      <c r="C38" s="2">
-        <v>7.7100000000000002E-2</v>
+      <c r="C38">
+        <v>7.71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2413,8 +2413,8 @@
       <c r="B39">
         <v>442.03477889999999</v>
       </c>
-      <c r="C39" s="2">
-        <v>7.7700000000000005E-2</v>
+      <c r="C39">
+        <v>7.7700000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2424,8 +2424,8 @@
       <c r="B40">
         <v>449.9111249</v>
       </c>
-      <c r="C40" s="2">
-        <v>7.9600000000000004E-2</v>
+      <c r="C40">
+        <v>7.9600000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2435,8 +2435,8 @@
       <c r="B41">
         <v>468.8444283</v>
       </c>
-      <c r="C41" s="2">
-        <v>8.1000000000000003E-2</v>
+      <c r="C41">
+        <v>8.1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2446,8 +2446,8 @@
       <c r="B42">
         <v>543.84379890000002</v>
       </c>
-      <c r="C42" s="2">
-        <v>8.3599999999999994E-2</v>
+      <c r="C42">
+        <v>8.36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2457,8 +2457,8 @@
       <c r="B43">
         <v>624.10509439999998</v>
       </c>
-      <c r="C43" s="2">
-        <v>8.5300000000000001E-2</v>
+      <c r="C43">
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2468,8 +2468,8 @@
       <c r="B44">
         <v>710.50934480000001</v>
       </c>
-      <c r="C44" s="2">
-        <v>8.6999999999999994E-2</v>
+      <c r="C44">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,8 +2479,8 @@
       <c r="B45">
         <v>802.01374199999998</v>
       </c>
-      <c r="C45" s="2">
-        <v>8.6300000000000002E-2</v>
+      <c r="C45">
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2490,8 +2490,8 @@
       <c r="B46">
         <v>1022.732467</v>
       </c>
-      <c r="C46" s="2">
-        <v>8.5400000000000004E-2</v>
+      <c r="C46">
+        <v>8.5400000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2501,8 +2501,8 @@
       <c r="B47">
         <v>993.50340530000005</v>
       </c>
-      <c r="C47" s="2">
-        <v>8.3500000000000005E-2</v>
+      <c r="C47">
+        <v>8.35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2512,8 +2512,8 @@
       <c r="B48">
         <v>1096.6361360000001</v>
       </c>
-      <c r="C48" s="2">
-        <v>8.3799999999999999E-2</v>
+      <c r="C48">
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2523,8 +2523,8 @@
       <c r="B49">
         <v>1350.63447</v>
       </c>
-      <c r="C49" s="2">
-        <v>8.3199999999999996E-2</v>
+      <c r="C49">
+        <v>8.32</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2534,8 +2534,8 @@
       <c r="B50">
         <v>1449.6033010000001</v>
       </c>
-      <c r="C50" s="2">
-        <v>8.1699999999999995E-2</v>
+      <c r="C50">
+        <v>8.17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2545,8 +2545,8 @@
       <c r="B51">
         <v>1434.0179869999999</v>
       </c>
-      <c r="C51" s="2">
-        <v>8.1000000000000003E-2</v>
+      <c r="C51">
+        <v>8.1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2556,8 +2556,8 @@
       <c r="B52">
         <v>1438.0570049999999</v>
       </c>
-      <c r="C52" s="2">
-        <v>8.0399999999999999E-2</v>
+      <c r="C52">
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2567,8 +2567,8 @@
       <c r="B53">
         <v>1559.863779</v>
       </c>
-      <c r="C53" s="2">
-        <v>7.9799999999999996E-2</v>
+      <c r="C53">
+        <v>7.9799999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2578,8 +2578,8 @@
       <c r="B54">
         <v>1590.1743309999999</v>
       </c>
-      <c r="C54" s="2">
-        <v>7.9200000000000007E-2</v>
+      <c r="C54">
+        <v>7.9200000000000008</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2589,8 +2589,8 @@
       <c r="B55">
         <v>1714.2795369999999</v>
       </c>
-      <c r="C55" s="2">
-        <v>7.8399999999999997E-2</v>
+      <c r="C55">
+        <v>7.84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2600,8 +2600,8 @@
       <c r="B56">
         <v>1957.9698129999999</v>
       </c>
-      <c r="C56" s="2">
-        <v>7.7299999999999994E-2</v>
+      <c r="C56">
+        <v>7.7299999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2611,8 +2611,8 @@
       <c r="B57">
         <v>1974.377731</v>
       </c>
-      <c r="C57" s="2">
-        <v>7.6499999999999999E-2</v>
+      <c r="C57">
+        <v>7.6499999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2622,8 +2622,8 @@
       <c r="B58">
         <v>2050.1637999999998</v>
       </c>
-      <c r="C58" s="2">
-        <v>6.5100000000000005E-2</v>
+      <c r="C58">
+        <v>6.5100000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,8 +2633,8 @@
       <c r="B59">
         <v>1913.2197329999999</v>
       </c>
-      <c r="C59" s="2">
-        <v>0.10199999999999999</v>
+      <c r="C59">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2644,8 +2644,8 @@
       <c r="B60">
         <v>2238.1271419999998</v>
       </c>
-      <c r="C60" s="2">
-        <v>7.7100000000000002E-2</v>
+      <c r="C60">
+        <v>7.71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2655,8 +2655,8 @@
       <c r="B61">
         <v>2410.8880210000002</v>
       </c>
-      <c r="C61" s="2">
-        <v>7.3300000000000004E-2</v>
+      <c r="C61">
+        <v>7.33</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2666,8 +2666,8 @@
       <c r="B62">
         <v>2612.4499999999998</v>
       </c>
-      <c r="C62" s="2">
-        <v>8.0299999999999996E-2</v>
+      <c r="C62">
+        <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,8 +2677,8 @@
       <c r="B63">
         <v>2730.7739999999999</v>
       </c>
-      <c r="C63" s="2">
-        <v>6.5699999999999995E-2</v>
+      <c r="C63">
+        <v>6.5699999999999994</v>
       </c>
     </row>
   </sheetData>
